--- a/Task_10/task_10-2.xlsx
+++ b/Task_10/task_10-2.xlsx
@@ -1,42 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\python_winter_work_2023\Task_10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E094EA3A-0266-4E4A-B1D6-8FC614D9CBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,21 +48,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -335,19 +387,606 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Осечкин</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ромов</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Шамашов</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Аптухова</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Кадымская</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Кузярина</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Гоздевский</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Завроцкий</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Карчевский</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ходорский</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Леликова</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Дивишина</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Рандугина</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Унукова</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Колянцева</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Кодина</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Сычужкин</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Биржева</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Еникеев</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Лотов</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Стаферова</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Кирицкий</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Панонова</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Шеханова</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Бейдина</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F19"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Task_10/task_10-2.xlsx
+++ b/Task_10/task_10-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\python_winter_work_2023\Task_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABFE7E8-5EE6-4BFD-8BEA-E64770F30606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD03BA6-E61C-4BBD-BBDB-5060AB9EDAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
-  <si>
-    <t>Осечкин</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Ромов</t>
   </si>
@@ -35,9 +32,6 @@
     <t>Аптухова</t>
   </si>
   <si>
-    <t>Кадымская</t>
-  </si>
-  <si>
     <t>Кузярина</t>
   </si>
   <si>
@@ -47,12 +41,6 @@
     <t>Завроцкий</t>
   </si>
   <si>
-    <t>Карчевский</t>
-  </si>
-  <si>
-    <t>Ходорский</t>
-  </si>
-  <si>
     <t>Леликова</t>
   </si>
   <si>
@@ -62,28 +50,10 @@
     <t>Унукова</t>
   </si>
   <si>
-    <t>Колянцева</t>
-  </si>
-  <si>
     <t>Кодина</t>
   </si>
   <si>
-    <t>Биржева</t>
-  </si>
-  <si>
-    <t>Лотов</t>
-  </si>
-  <si>
     <t>Стаферова</t>
-  </si>
-  <si>
-    <t>Кирицкий</t>
-  </si>
-  <si>
-    <t>Шеханова</t>
-  </si>
-  <si>
-    <t>Бейдина</t>
   </si>
 </sst>
 </file>
@@ -403,8 +373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,7 +384,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>5</v>
@@ -434,7 +404,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -454,7 +424,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -474,7 +444,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -494,7 +464,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -514,7 +484,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -534,7 +504,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -554,7 +524,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -574,7 +544,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -594,7 +564,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -619,10 +589,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +602,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>3</v>
@@ -652,7 +622,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -672,7 +642,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -692,7 +662,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -712,7 +682,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -732,7 +702,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -752,7 +722,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -772,7 +742,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -792,7 +762,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -812,7 +782,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -828,106 +798,6 @@
       </c>
       <c r="F10">
         <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>7</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Task_10/task_10-2.xlsx
+++ b/Task_10/task_10-2.xlsx
@@ -9,8 +9,6 @@
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Лист31" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Лист32" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -397,7 +395,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -518,7 +516,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Кузярина</t>
+          <t>Леликова</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -639,7 +637,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G17"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -738,7 +736,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Стаферова</t>
+          <t>Аптухова</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -889,91 +887,91 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Стаферова</t>
+          <t>Аптухова</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>157</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ромов</t>
+          <t>Гоздевский</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Шамашов</t>
+          <t>Дивишина</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Аптухова</t>
+          <t>Завроцкий</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Кузярина</t>
+          <t>Кодина</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Гоздевский</t>
+          <t>Кузярина</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Завроцкий</t>
+          <t>Леликова</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Леликова</t>
+          <t>Ромов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Дивишина</t>
+          <t>Стаферова</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -989,50 +987,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Кодина</t>
+          <t>Шамашов</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Task_10/task_10-2.xlsx
+++ b/Task_10/task_10-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -636,7 +636,7 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/Task_10/task_10-2.xlsx
+++ b/Task_10/task_10-2.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Лист31" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -997,4 +998,22 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>